--- a/biology/Botanique/Square_Necker/Square_Necker.xlsx
+++ b/biology/Botanique/Square_Necker/Square_Necker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Necker est un espace vert du 15e arrondissement de Paris situé dans le quartier Necker.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square occupe tout l'espace compris entre la rue La Quintinie, la rue Bargue, la rue Tessier et la rue de la Procession. Il est accessible par le 1, rue Tessier.
 Il est desservi à proximité par la ligne 12 à la station Volontaires.
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il porte le nom du financier et homme politique suisse Jacques Necker (1732-1804)
 </t>
@@ -575,7 +591,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été créé en 1900.
 </t>
@@ -606,7 +624,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Aire de jeux
 Table de ping-pong
